--- a/madnessUpsetData.xlsx
+++ b/madnessUpsetData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tichartier/Documents/Data/Research/rankability/SVD/Matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panderson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4B2A28-E883-4C46-9CAF-E9A7FC870804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1CA547-776C-534A-944A-F6F55AC53890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43040" yWindow="9160" windowWidth="27640" windowHeight="16940" xr2:uid="{287F3011-79A2-2347-897C-AD9A4802F392}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{287F3011-79A2-2347-897C-AD9A4802F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,11 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D8407-9263-164D-A766-F8F75B135C1E}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
@@ -440,7 +443,7 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -451,7 +454,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,233 +477,310 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20.25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.1259999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>2009</v>
       </c>
-      <c r="B3">
+      <c r="B10" s="3">
         <v>18.25</v>
       </c>
-      <c r="C3">
+      <c r="C10" s="3">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D10">
         <v>1310</v>
       </c>
-      <c r="E3">
+      <c r="E10">
         <v>69.841269999999994</v>
       </c>
-      <c r="F3">
+      <c r="F10">
         <v>1370</v>
       </c>
-      <c r="G3">
+      <c r="G10">
         <v>71.428571000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>2010</v>
       </c>
-      <c r="B4">
+      <c r="B11" s="3">
         <v>27.25</v>
       </c>
-      <c r="C4">
+      <c r="C11" s="3">
         <v>0.74299999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D11">
         <v>1190</v>
       </c>
-      <c r="E4">
+      <c r="E11">
         <v>65.079364999999996</v>
       </c>
-      <c r="F4">
+      <c r="F11">
         <v>760</v>
       </c>
-      <c r="G4">
+      <c r="G11">
         <v>65.079364999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>2011</v>
       </c>
-      <c r="B5">
+      <c r="B12" s="3">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="C12" s="3">
         <v>1.4179999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D12">
         <v>470</v>
       </c>
-      <c r="E5">
+      <c r="E12">
         <v>55.555556000000003</v>
       </c>
-      <c r="F5">
+      <c r="F12">
         <v>510</v>
       </c>
-      <c r="G5">
+      <c r="G12">
         <v>55.555556000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>2012</v>
       </c>
-      <c r="B6">
+      <c r="B13" s="3">
         <v>23.25</v>
       </c>
-      <c r="C6">
+      <c r="C13" s="3">
         <v>0.23499999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D13">
         <v>1440</v>
       </c>
-      <c r="E6">
+      <c r="E13">
         <v>71.428571000000005</v>
       </c>
-      <c r="F6">
+      <c r="F13">
         <v>1250</v>
       </c>
-      <c r="G6">
+      <c r="G13">
         <v>66.666667000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>2013</v>
       </c>
-      <c r="B7">
+      <c r="B14" s="3">
         <v>25.25</v>
       </c>
-      <c r="C7">
+      <c r="C14" s="3">
         <v>0.78100000000000003</v>
       </c>
-      <c r="D7">
+      <c r="D14">
         <v>1170</v>
       </c>
-      <c r="E7">
+      <c r="E14">
         <v>63.492063000000002</v>
       </c>
-      <c r="F7">
+      <c r="F14">
         <v>620</v>
       </c>
-      <c r="G7">
+      <c r="G14">
         <v>60.317459999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>2014</v>
       </c>
-      <c r="B8">
+      <c r="B15" s="3">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C15" s="3">
         <v>1.8080000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D15">
         <v>770</v>
       </c>
-      <c r="E8">
+      <c r="E15">
         <v>68.253968</v>
       </c>
-      <c r="F8">
+      <c r="F15">
         <v>680</v>
       </c>
-      <c r="G8">
+      <c r="G15">
         <v>61.904761999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>2015</v>
       </c>
-      <c r="B9">
+      <c r="B16" s="3">
         <v>17.5</v>
       </c>
-      <c r="C9">
+      <c r="C16" s="3">
         <v>0.372</v>
       </c>
-      <c r="D9">
+      <c r="D16">
         <v>1160</v>
       </c>
-      <c r="E9">
+      <c r="E16">
         <v>74.603174999999993</v>
       </c>
-      <c r="F9">
+      <c r="F16">
         <v>1060</v>
       </c>
-      <c r="G9">
+      <c r="G16">
         <v>68.253968</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>2016</v>
       </c>
-      <c r="B10">
+      <c r="B17" s="3">
         <v>26.25</v>
       </c>
-      <c r="C10">
+      <c r="C17" s="3">
         <v>0.71599999999999997</v>
       </c>
-      <c r="D10">
+      <c r="D17">
         <v>970</v>
       </c>
-      <c r="E10">
+      <c r="E17">
         <v>65.079364999999996</v>
       </c>
-      <c r="F10">
+      <c r="F17">
         <v>960</v>
       </c>
-      <c r="G10">
+      <c r="G17">
         <v>65.079364999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>2017</v>
       </c>
-      <c r="B11">
+      <c r="B18" s="3">
         <v>17.5</v>
       </c>
-      <c r="C11">
+      <c r="C18" s="3">
         <v>0.67200000000000004</v>
       </c>
-      <c r="D11">
+      <c r="D18">
         <v>1160</v>
       </c>
-      <c r="E11">
+      <c r="E18">
         <v>73.015872999999999</v>
       </c>
-      <c r="F11">
+      <c r="F18">
         <v>970</v>
       </c>
-      <c r="G11">
+      <c r="G18">
         <v>73.015872999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>2018</v>
       </c>
-      <c r="B12">
+      <c r="B19" s="3">
         <v>27.25</v>
       </c>
-      <c r="C12">
+      <c r="C19" s="3">
         <v>0.99299999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D19">
         <v>1380</v>
       </c>
-      <c r="E12">
+      <c r="E19">
         <v>66.666667000000004</v>
       </c>
-      <c r="F12">
+      <c r="F19">
         <v>1490</v>
       </c>
-      <c r="G12">
+      <c r="G19">
         <v>71.428571000000005</v>
       </c>
     </row>
